--- a/output_by_subject/CS544.xlsx
+++ b/output_by_subject/CS544.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,6 +927,50 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021CS31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS544</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021CS13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS544</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
